--- a/NET.xlsx
+++ b/NET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B60660-81A4-4C11-A54F-1D5DB295AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030FDE3-6052-4035-A076-30DE4700C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="90" windowWidth="31035" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="-15" yWindow="90" windowWidth="14370" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>Price</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>if growth accelerates up</t>
-  </si>
-  <si>
     <t>Seq Rev %</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,7 +779,7 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -787,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>107.92</v>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -795,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>298.08999999999997</v>
+        <v>338.58300000000003</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -805,7 +807,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>32169.872799999997</v>
+        <v>25190.575200000003</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -813,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>1670</v>
+        <v>1716.2</v>
       </c>
       <c r="P5" s="2"/>
     </row>
@@ -832,7 +834,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>31939.872799999997</v>
+        <v>24914.375200000002</v>
       </c>
     </row>
   </sheetData>
@@ -842,13 +844,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:DC55"/>
+  <dimension ref="A1:DD55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC32" sqref="AC32"/>
+      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,12 +860,12 @@
     <col min="3" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -888,11 +890,17 @@
       <c r="R1" s="13">
         <v>45291</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S1" s="14">
+        <v>45382</v>
+      </c>
+      <c r="T1" s="14">
+        <v>45473</v>
+      </c>
+      <c r="W1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,50 +950,57 @@
         <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2">
+      <c r="U2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2">
         <v>2020</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="Y2">
+        <f>+X2+1</f>
         <v>2021</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AA2" si="0">+X2+1</f>
+      <c r="Z2">
+        <f t="shared" ref="Z2:AB2" si="0">+Y2+1</f>
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2025</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2026</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1002,60 +1017,60 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="V5" t="s">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="AA4" s="25"/>
+    </row>
+    <row r="5" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22">
-        <f t="shared" ref="W5:AH5" si="1">(X6-W6)/W6</f>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22">
+        <f t="shared" ref="Y5:AI5" si="1">(Y6-X6)/X6</f>
         <v>0.52282170190159583</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Z5" s="22">
         <f t="shared" si="1"/>
         <v>0.48574858399880538</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="AA5" s="24">
         <f t="shared" si="1"/>
         <v>0.32960450494420124</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AB5" s="24">
         <f t="shared" si="1"/>
         <v>0.27241964862709755</v>
       </c>
-      <c r="AB5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
       <c r="AC5" s="24">
         <f t="shared" si="1"/>
-        <v>0.26999999999999991</v>
+        <v>0.24</v>
       </c>
       <c r="AD5" s="24">
         <f t="shared" si="1"/>
-        <v>0.26999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="AE5" s="24">
         <f t="shared" si="1"/>
-        <v>0.27000000000000007</v>
+        <v>0.24</v>
       </c>
       <c r="AF5" s="24">
         <f t="shared" si="1"/>
-        <v>0.26999999999999996</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="AG5" s="24">
         <f t="shared" si="1"/>
-        <v>0.27000000000000007</v>
+        <v>0.23999999999999991</v>
       </c>
       <c r="AH5" s="24">
         <f t="shared" si="1"/>
-        <v>9.9999999999999499E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="AI5" s="24">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000082E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1101,352 +1116,364 @@
         <v>362.47300000000001</v>
       </c>
       <c r="S6" s="3">
-        <v>373</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" s="3">
+        <v>378.6</v>
+      </c>
+      <c r="T6" s="3">
+        <f>(393.5+394.5)/2</f>
+        <v>394</v>
+      </c>
+      <c r="U6" s="3">
+        <f>Q6*1.28</f>
+        <v>429.56800000000004</v>
+      </c>
+      <c r="V6" s="3">
+        <f>R6*1.28</f>
+        <v>463.96544</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="3">
         <v>431.05900000000003</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <f>SUM(G6:J6)</f>
         <v>656.42600000000004</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>975.28399999999988</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <f>SUM(O6:R6)</f>
         <v>1296.7420000000002</v>
       </c>
-      <c r="AA6" s="3">
-        <f>(1652+1648)/2</f>
+      <c r="AB6" s="3">
+        <f>(1648+1652)/2</f>
         <v>1650</v>
       </c>
-      <c r="AB6" s="3">
-        <f t="shared" ref="AA6:AG6" si="2">AA6*(1+$V$24)</f>
-        <v>2095.5</v>
-      </c>
       <c r="AC6" s="3">
-        <f t="shared" si="2"/>
-        <v>2661.2849999999999</v>
+        <f t="shared" ref="AC6:AH6" si="2">AB6*(1+$W$24)</f>
+        <v>2046</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="2"/>
-        <v>3379.8319499999998</v>
+        <v>2537.04</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="2"/>
-        <v>4292.3865765</v>
+        <v>3145.9295999999999</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="2"/>
-        <v>5451.330952155</v>
+        <v>3900.9527039999998</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="2"/>
-        <v>6923.1903092368502</v>
+        <v>4837.1813529599995</v>
       </c>
       <c r="AH6" s="3">
-        <f>AG6*(1+$V$25)</f>
-        <v>6992.4222123292184</v>
+        <f t="shared" si="2"/>
+        <v>5998.1048776703992</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" ref="AI6:CT6" si="3">AH6*(1+$V$25)</f>
-        <v>7062.3464344525109</v>
+        <f>AH6*(1+$W$25)</f>
+        <v>6058.0859264471037</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="3"/>
-        <v>7132.969898797036</v>
+        <f t="shared" ref="AJ6:CU6" si="3">AI6*(1+$W$25)</f>
+        <v>6118.6667857115744</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="3"/>
-        <v>7204.299597785006</v>
+        <v>6179.8534535686904</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="3"/>
-        <v>7276.3425937628563</v>
+        <v>6241.6519881043778</v>
       </c>
       <c r="AM6" s="3">
         <f t="shared" si="3"/>
-        <v>7349.1060197004845</v>
+        <v>6304.068507985422</v>
       </c>
       <c r="AN6" s="3">
         <f t="shared" si="3"/>
-        <v>7422.5970798974895</v>
+        <v>6367.1091930652765</v>
       </c>
       <c r="AO6" s="3">
         <f t="shared" si="3"/>
-        <v>7496.8230506964646</v>
+        <v>6430.7802849959289</v>
       </c>
       <c r="AP6" s="3">
         <f t="shared" si="3"/>
-        <v>7571.7912812034292</v>
+        <v>6495.0880878458884</v>
       </c>
       <c r="AQ6" s="3">
         <f t="shared" si="3"/>
-        <v>7647.5091940154634</v>
+        <v>6560.0389687243469</v>
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="3"/>
-        <v>7723.9842859556184</v>
+        <v>6625.6393584115904</v>
       </c>
       <c r="AS6" s="3">
         <f t="shared" si="3"/>
-        <v>7801.2241288151745</v>
+        <v>6691.8957519957066</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="3"/>
-        <v>7879.2363701033264</v>
+        <v>6758.8147095156637</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="3"/>
-        <v>7958.0287338043599</v>
+        <v>6826.40285661082</v>
       </c>
       <c r="AV6" s="3">
         <f t="shared" si="3"/>
-        <v>8037.6090211424034</v>
+        <v>6894.6668851769282</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="3"/>
-        <v>8117.985111353828</v>
+        <v>6963.6135540286978</v>
       </c>
       <c r="AX6" s="3">
         <f t="shared" si="3"/>
-        <v>8199.1649624673664</v>
+        <v>7033.2496895689846</v>
       </c>
       <c r="AY6" s="3">
         <f t="shared" si="3"/>
-        <v>8281.1566120920397</v>
+        <v>7103.5821864646741</v>
       </c>
       <c r="AZ6" s="3">
         <f t="shared" si="3"/>
-        <v>8363.968178212961</v>
+        <v>7174.6180083293211</v>
       </c>
       <c r="BA6" s="3">
         <f t="shared" si="3"/>
-        <v>8447.6078599950906</v>
+        <v>7246.3641884126146</v>
       </c>
       <c r="BB6" s="3">
         <f t="shared" si="3"/>
-        <v>8532.0839385950421</v>
+        <v>7318.827830296741</v>
       </c>
       <c r="BC6" s="3">
         <f t="shared" si="3"/>
-        <v>8617.4047779809935</v>
+        <v>7392.0161085997088</v>
       </c>
       <c r="BD6" s="3">
         <f t="shared" si="3"/>
-        <v>8703.5788257608037</v>
+        <v>7465.9362696857061</v>
       </c>
       <c r="BE6" s="3">
         <f t="shared" si="3"/>
-        <v>8790.6146140184119</v>
+        <v>7540.5956323825631</v>
       </c>
       <c r="BF6" s="3">
         <f t="shared" si="3"/>
-        <v>8878.5207601585953</v>
+        <v>7616.0015887063892</v>
       </c>
       <c r="BG6" s="3">
         <f t="shared" si="3"/>
-        <v>8967.3059677601814</v>
+        <v>7692.1616045934534</v>
       </c>
       <c r="BH6" s="3">
         <f t="shared" si="3"/>
-        <v>9056.9790274377829</v>
+        <v>7769.0832206393879</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="3"/>
-        <v>9147.5488177121606</v>
+        <v>7846.7740528457816</v>
       </c>
       <c r="BJ6" s="3">
         <f t="shared" si="3"/>
-        <v>9239.0243058892829</v>
+        <v>7925.2417933742399</v>
       </c>
       <c r="BK6" s="3">
         <f t="shared" si="3"/>
-        <v>9331.4145489481762</v>
+        <v>8004.4942113079824</v>
       </c>
       <c r="BL6" s="3">
         <f t="shared" si="3"/>
-        <v>9424.7286944376574</v>
+        <v>8084.5391534210621</v>
       </c>
       <c r="BM6" s="3">
         <f t="shared" si="3"/>
-        <v>9518.9759813820347</v>
+        <v>8165.3845449552728</v>
       </c>
       <c r="BN6" s="3">
         <f t="shared" si="3"/>
-        <v>9614.1657411958549</v>
+        <v>8247.0383904048249</v>
       </c>
       <c r="BO6" s="3">
         <f t="shared" si="3"/>
-        <v>9710.3073986078143</v>
+        <v>8329.5087743088734</v>
       </c>
       <c r="BP6" s="3">
         <f t="shared" si="3"/>
-        <v>9807.4104725938923</v>
+        <v>8412.8038620519619</v>
       </c>
       <c r="BQ6" s="3">
         <f t="shared" si="3"/>
-        <v>9905.4845773198322</v>
+        <v>8496.9319006724818</v>
       </c>
       <c r="BR6" s="3">
         <f t="shared" si="3"/>
-        <v>10004.539423093031</v>
+        <v>8581.9012196792064</v>
       </c>
       <c r="BS6" s="3">
         <f t="shared" si="3"/>
-        <v>10104.584817323961</v>
+        <v>8667.7202318759992</v>
       </c>
       <c r="BT6" s="3">
         <f t="shared" si="3"/>
-        <v>10205.630665497201</v>
+        <v>8754.3974341947596</v>
       </c>
       <c r="BU6" s="3">
         <f t="shared" si="3"/>
-        <v>10307.686972152173</v>
+        <v>8841.941408536708</v>
       </c>
       <c r="BV6" s="3">
         <f t="shared" si="3"/>
-        <v>10410.763841873695</v>
+        <v>8930.3608226220749</v>
       </c>
       <c r="BW6" s="3">
         <f t="shared" si="3"/>
-        <v>10514.871480292431</v>
+        <v>9019.6644308482955</v>
       </c>
       <c r="BX6" s="3">
         <f t="shared" si="3"/>
-        <v>10620.020195095356</v>
+        <v>9109.8610751567794</v>
       </c>
       <c r="BY6" s="3">
         <f t="shared" si="3"/>
-        <v>10726.220397046309</v>
+        <v>9200.9596859083467</v>
       </c>
       <c r="BZ6" s="3">
         <f t="shared" si="3"/>
-        <v>10833.482601016773</v>
+        <v>9292.9692827674298</v>
       </c>
       <c r="CA6" s="3">
         <f t="shared" si="3"/>
-        <v>10941.817427026941</v>
+        <v>9385.8989755951043</v>
       </c>
       <c r="CB6" s="3">
         <f t="shared" si="3"/>
-        <v>11051.23560129721</v>
+        <v>9479.7579653510547</v>
       </c>
       <c r="CC6" s="3">
         <f t="shared" si="3"/>
-        <v>11161.747957310183</v>
+        <v>9574.5555450045649</v>
       </c>
       <c r="CD6" s="3">
         <f t="shared" si="3"/>
-        <v>11273.365436883285</v>
+        <v>9670.3011004546115</v>
       </c>
       <c r="CE6" s="3">
         <f t="shared" si="3"/>
-        <v>11386.099091252117</v>
+        <v>9767.0041114591586</v>
       </c>
       <c r="CF6" s="3">
         <f t="shared" si="3"/>
-        <v>11499.960082164638</v>
+        <v>9864.6741525737507</v>
       </c>
       <c r="CG6" s="3">
         <f t="shared" si="3"/>
-        <v>11614.959682986284</v>
+        <v>9963.3208940994882</v>
       </c>
       <c r="CH6" s="3">
         <f t="shared" si="3"/>
-        <v>11731.109279816146</v>
+        <v>10062.954103040483</v>
       </c>
       <c r="CI6" s="3">
         <f t="shared" si="3"/>
-        <v>11848.420372614308</v>
+        <v>10163.583644070888</v>
       </c>
       <c r="CJ6" s="3">
         <f t="shared" si="3"/>
-        <v>11966.90457634045</v>
+        <v>10265.219480511598</v>
       </c>
       <c r="CK6" s="3">
         <f t="shared" si="3"/>
-        <v>12086.573622103855</v>
+        <v>10367.871675316714</v>
       </c>
       <c r="CL6" s="3">
         <f t="shared" si="3"/>
-        <v>12207.439358324893</v>
+        <v>10471.550392069881</v>
       </c>
       <c r="CM6" s="3">
         <f t="shared" si="3"/>
-        <v>12329.513751908142</v>
+        <v>10576.26589599058</v>
       </c>
       <c r="CN6" s="3">
         <f t="shared" si="3"/>
-        <v>12452.808889427224</v>
+        <v>10682.028554950486</v>
       </c>
       <c r="CO6" s="3">
         <f t="shared" si="3"/>
-        <v>12577.336978321497</v>
+        <v>10788.848840499992</v>
       </c>
       <c r="CP6" s="3">
         <f t="shared" si="3"/>
-        <v>12703.110348104712</v>
+        <v>10896.737328904992</v>
       </c>
       <c r="CQ6" s="3">
         <f t="shared" si="3"/>
-        <v>12830.14145158576</v>
+        <v>11005.704702194042</v>
       </c>
       <c r="CR6" s="3">
         <f t="shared" si="3"/>
-        <v>12958.442866101617</v>
+        <v>11115.761749215982</v>
       </c>
       <c r="CS6" s="3">
         <f t="shared" si="3"/>
-        <v>13088.027294762633</v>
+        <v>11226.919366708142</v>
       </c>
       <c r="CT6" s="3">
         <f t="shared" si="3"/>
-        <v>13218.907567710259</v>
+        <v>11339.188560375223</v>
       </c>
       <c r="CU6" s="3">
-        <f t="shared" ref="CU6:DC6" si="4">CT6*(1+$V$25)</f>
-        <v>13351.096643387362</v>
+        <f t="shared" si="3"/>
+        <v>11452.580445978976</v>
       </c>
       <c r="CV6" s="3">
-        <f t="shared" si="4"/>
-        <v>13484.607609821236</v>
+        <f t="shared" ref="CV6:DD6" si="4">CU6*(1+$W$25)</f>
+        <v>11567.106250438766</v>
       </c>
       <c r="CW6" s="3">
         <f t="shared" si="4"/>
-        <v>13619.453685919449</v>
+        <v>11682.777312943153</v>
       </c>
       <c r="CX6" s="3">
         <f t="shared" si="4"/>
-        <v>13755.648222778644</v>
+        <v>11799.605086072585</v>
       </c>
       <c r="CY6" s="3">
         <f t="shared" si="4"/>
-        <v>13893.20470500643</v>
+        <v>11917.60113693331</v>
       </c>
       <c r="CZ6" s="3">
         <f t="shared" si="4"/>
-        <v>14032.136752056495</v>
+        <v>12036.777148302643</v>
       </c>
       <c r="DA6" s="3">
         <f t="shared" si="4"/>
-        <v>14172.458119577059</v>
+        <v>12157.144919785669</v>
       </c>
       <c r="DB6" s="3">
         <f t="shared" si="4"/>
-        <v>14314.18270077283</v>
+        <v>12278.716368983525</v>
       </c>
       <c r="DC6" s="3">
         <f t="shared" si="4"/>
-        <v>14457.324527780558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12401.503532673361</v>
+      </c>
+      <c r="DD6" s="3">
+        <f t="shared" si="4"/>
+        <v>12525.518568000096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1491,356 +1518,359 @@
       <c r="R7" s="5">
         <v>83.283000000000001</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="S7" s="5">
+        <v>85.037999999999997</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>975.28399999999988</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <f>SUM(O6:R6)</f>
         <v>1296.7420000000002</v>
       </c>
-      <c r="AA7" s="3">
-        <f t="shared" ref="AA7:AG7" si="5">Z7*(1+$X$24)</f>
-        <v>1685.7646000000002</v>
-      </c>
       <c r="AB7" s="3">
-        <f t="shared" si="5"/>
-        <v>2191.4939800000002</v>
+        <f t="shared" ref="AB7:AH7" si="5">AA7*(1+$Y$24)</f>
+        <v>1659.8297600000003</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" si="5"/>
-        <v>2848.9421740000003</v>
+        <v>2124.5820928000003</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" si="5"/>
-        <v>3703.6248262000004</v>
+        <v>2719.4650787840005</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" si="5"/>
-        <v>4814.7122740600007</v>
+        <v>3480.9153008435205</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" si="5"/>
-        <v>6259.1259562780015</v>
+        <v>4455.571585079706</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" si="5"/>
-        <v>8136.8637431614025</v>
+        <v>5703.1316289020242</v>
       </c>
       <c r="AH7" s="3">
-        <f>AG7*(1+$V$25)</f>
-        <v>8218.2323805930173</v>
+        <f t="shared" si="5"/>
+        <v>7300.0084849945915</v>
       </c>
       <c r="AI7" s="3">
-        <f>AH7*(1+$V$25)</f>
-        <v>8300.4147043989469</v>
+        <f>AH7*(1+$W$25)</f>
+        <v>7373.0085698445373</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" ref="AJ7:CU7" si="6">AI7*(1+$V$25)</f>
-        <v>8383.418851442937</v>
+        <f>AI7*(1+$W$25)</f>
+        <v>7446.738655542983</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="6"/>
-        <v>8467.2530399573661</v>
+        <f t="shared" ref="AK7:CV7" si="6">AJ7*(1+$W$25)</f>
+        <v>7521.2060420984126</v>
       </c>
       <c r="AL7" s="3">
         <f t="shared" si="6"/>
-        <v>8551.9255703569397</v>
+        <v>7596.4181025193966</v>
       </c>
       <c r="AM7" s="3">
         <f t="shared" si="6"/>
-        <v>8637.4448260605095</v>
+        <v>7672.3822835445908</v>
       </c>
       <c r="AN7" s="3">
         <f t="shared" si="6"/>
-        <v>8723.8192743211148</v>
+        <v>7749.1061063800371</v>
       </c>
       <c r="AO7" s="3">
         <f t="shared" si="6"/>
-        <v>8811.0574670643255</v>
+        <v>7826.5971674438379</v>
       </c>
       <c r="AP7" s="3">
         <f t="shared" si="6"/>
-        <v>8899.1680417349689</v>
+        <v>7904.8631391182762</v>
       </c>
       <c r="AQ7" s="3">
         <f t="shared" si="6"/>
-        <v>8988.1597221523189</v>
+        <v>7983.9117705094586</v>
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="6"/>
-        <v>9078.0413193738423</v>
+        <v>8063.750888214553</v>
       </c>
       <c r="AS7" s="3">
         <f t="shared" si="6"/>
-        <v>9168.8217325675814</v>
+        <v>8144.388397096699</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="6"/>
-        <v>9260.5099498932577</v>
+        <v>8225.8322810676655</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="6"/>
-        <v>9353.1150493921905</v>
+        <v>8308.0906038783414</v>
       </c>
       <c r="AV7" s="3">
         <f t="shared" si="6"/>
-        <v>9446.6461998861123</v>
+        <v>8391.1715099171251</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="6"/>
-        <v>9541.1126618849739</v>
+        <v>8475.0832250162966</v>
       </c>
       <c r="AX7" s="3">
         <f t="shared" si="6"/>
-        <v>9636.5237885038241</v>
+        <v>8559.8340572664601</v>
       </c>
       <c r="AY7" s="3">
         <f t="shared" si="6"/>
-        <v>9732.8890263888625</v>
+        <v>8645.432397839124</v>
       </c>
       <c r="AZ7" s="3">
         <f t="shared" si="6"/>
-        <v>9830.2179166527512</v>
+        <v>8731.8867218175146</v>
       </c>
       <c r="BA7" s="3">
         <f t="shared" si="6"/>
-        <v>9928.5200958192781</v>
+        <v>8819.2055890356896</v>
       </c>
       <c r="BB7" s="3">
         <f t="shared" si="6"/>
-        <v>10027.805296777471</v>
+        <v>8907.3976449260463</v>
       </c>
       <c r="BC7" s="3">
         <f t="shared" si="6"/>
-        <v>10128.083349745246</v>
+        <v>8996.4716213753072</v>
       </c>
       <c r="BD7" s="3">
         <f t="shared" si="6"/>
-        <v>10229.364183242698</v>
+        <v>9086.4363375890607</v>
       </c>
       <c r="BE7" s="3">
         <f t="shared" si="6"/>
-        <v>10331.657825075126</v>
+        <v>9177.3007009649518</v>
       </c>
       <c r="BF7" s="3">
         <f t="shared" si="6"/>
-        <v>10434.974403325878</v>
+        <v>9269.0737079746013</v>
       </c>
       <c r="BG7" s="3">
         <f t="shared" si="6"/>
-        <v>10539.324147359137</v>
+        <v>9361.7644450543467</v>
       </c>
       <c r="BH7" s="3">
         <f t="shared" si="6"/>
-        <v>10644.717388832729</v>
+        <v>9455.3820895048902</v>
       </c>
       <c r="BI7" s="3">
         <f t="shared" si="6"/>
-        <v>10751.164562721056</v>
+        <v>9549.9359103999395</v>
       </c>
       <c r="BJ7" s="3">
         <f t="shared" si="6"/>
-        <v>10858.676208348266</v>
+        <v>9645.4352695039397</v>
       </c>
       <c r="BK7" s="3">
         <f t="shared" si="6"/>
-        <v>10967.26297043175</v>
+        <v>9741.8896221989799</v>
       </c>
       <c r="BL7" s="3">
         <f t="shared" si="6"/>
-        <v>11076.935600136067</v>
+        <v>9839.3085184209704</v>
       </c>
       <c r="BM7" s="3">
         <f t="shared" si="6"/>
-        <v>11187.704956137428</v>
+        <v>9937.7016036051809</v>
       </c>
       <c r="BN7" s="3">
         <f t="shared" si="6"/>
-        <v>11299.582005698801</v>
+        <v>10037.078619641234</v>
       </c>
       <c r="BO7" s="3">
         <f t="shared" si="6"/>
-        <v>11412.577825755789</v>
+        <v>10137.449405837646</v>
       </c>
       <c r="BP7" s="3">
         <f t="shared" si="6"/>
-        <v>11526.703604013346</v>
+        <v>10238.823899896022</v>
       </c>
       <c r="BQ7" s="3">
         <f t="shared" si="6"/>
-        <v>11641.97064005348</v>
+        <v>10341.212138894982</v>
       </c>
       <c r="BR7" s="3">
         <f t="shared" si="6"/>
-        <v>11758.390346454014</v>
+        <v>10444.624260283932</v>
       </c>
       <c r="BS7" s="3">
         <f t="shared" si="6"/>
-        <v>11875.974249918554</v>
+        <v>10549.070502886771</v>
       </c>
       <c r="BT7" s="3">
         <f t="shared" si="6"/>
-        <v>11994.73399241774</v>
+        <v>10654.561207915638</v>
       </c>
       <c r="BU7" s="3">
         <f t="shared" si="6"/>
-        <v>12114.681332341917</v>
+        <v>10761.106819994795</v>
       </c>
       <c r="BV7" s="3">
         <f t="shared" si="6"/>
-        <v>12235.828145665337</v>
+        <v>10868.717888194744</v>
       </c>
       <c r="BW7" s="3">
         <f t="shared" si="6"/>
-        <v>12358.186427121991</v>
+        <v>10977.405067076692</v>
       </c>
       <c r="BX7" s="3">
         <f t="shared" si="6"/>
-        <v>12481.768291393211</v>
+        <v>11087.179117747459</v>
       </c>
       <c r="BY7" s="3">
         <f t="shared" si="6"/>
-        <v>12606.585974307143</v>
+        <v>11198.050908924934</v>
       </c>
       <c r="BZ7" s="3">
         <f t="shared" si="6"/>
-        <v>12732.651834050215</v>
+        <v>11310.031418014183</v>
       </c>
       <c r="CA7" s="3">
         <f t="shared" si="6"/>
-        <v>12859.978352390717</v>
+        <v>11423.131732194324</v>
       </c>
       <c r="CB7" s="3">
         <f t="shared" si="6"/>
-        <v>12988.578135914624</v>
+        <v>11537.363049516267</v>
       </c>
       <c r="CC7" s="3">
         <f t="shared" si="6"/>
-        <v>13118.46391727377</v>
+        <v>11652.736680011431</v>
       </c>
       <c r="CD7" s="3">
         <f t="shared" si="6"/>
-        <v>13249.648556446507</v>
+        <v>11769.264046811544</v>
       </c>
       <c r="CE7" s="3">
         <f t="shared" si="6"/>
-        <v>13382.145042010972</v>
+        <v>11886.95668727966</v>
       </c>
       <c r="CF7" s="3">
         <f t="shared" si="6"/>
-        <v>13515.966492431082</v>
+        <v>12005.826254152456</v>
       </c>
       <c r="CG7" s="3">
         <f t="shared" si="6"/>
-        <v>13651.126157355393</v>
+        <v>12125.884516693981</v>
       </c>
       <c r="CH7" s="3">
         <f t="shared" si="6"/>
-        <v>13787.637418928947</v>
+        <v>12247.143361860921</v>
       </c>
       <c r="CI7" s="3">
         <f t="shared" si="6"/>
-        <v>13925.513793118236</v>
+        <v>12369.614795479531</v>
       </c>
       <c r="CJ7" s="3">
         <f t="shared" si="6"/>
-        <v>14064.768931049419</v>
+        <v>12493.310943434326</v>
       </c>
       <c r="CK7" s="3">
         <f t="shared" si="6"/>
-        <v>14205.416620359912</v>
+        <v>12618.244052868669</v>
       </c>
       <c r="CL7" s="3">
         <f t="shared" si="6"/>
-        <v>14347.470786563512</v>
+        <v>12744.426493397355</v>
       </c>
       <c r="CM7" s="3">
         <f t="shared" si="6"/>
-        <v>14490.945494429146</v>
+        <v>12871.87075833133</v>
       </c>
       <c r="CN7" s="3">
         <f t="shared" si="6"/>
-        <v>14635.854949373437</v>
+        <v>13000.589465914643</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="6"/>
-        <v>14782.213498867171</v>
+        <v>13130.59536057379</v>
       </c>
       <c r="CP7" s="3">
         <f t="shared" si="6"/>
-        <v>14930.035633855843</v>
+        <v>13261.901314179528</v>
       </c>
       <c r="CQ7" s="3">
         <f t="shared" si="6"/>
-        <v>15079.335990194402</v>
+        <v>13394.520327321323</v>
       </c>
       <c r="CR7" s="3">
         <f t="shared" si="6"/>
-        <v>15230.129350096346</v>
+        <v>13528.465530594536</v>
       </c>
       <c r="CS7" s="3">
         <f t="shared" si="6"/>
-        <v>15382.430643597309</v>
+        <v>13663.750185900482</v>
       </c>
       <c r="CT7" s="3">
         <f t="shared" si="6"/>
-        <v>15536.254950033283</v>
+        <v>13800.387687759487</v>
       </c>
       <c r="CU7" s="3">
         <f t="shared" si="6"/>
-        <v>15691.617499533615</v>
+        <v>13938.391564637082</v>
       </c>
       <c r="CV7" s="3">
-        <f t="shared" ref="CV7:DC7" si="7">CU7*(1+$V$25)</f>
-        <v>15848.533674528951</v>
+        <f t="shared" si="6"/>
+        <v>14077.775480283453</v>
       </c>
       <c r="CW7" s="3">
-        <f t="shared" si="7"/>
-        <v>16007.01901127424</v>
+        <f t="shared" ref="CW7:DD7" si="7">CV7*(1+$W$25)</f>
+        <v>14218.553235086289</v>
       </c>
       <c r="CX7" s="3">
         <f t="shared" si="7"/>
-        <v>16167.089201386983</v>
+        <v>14360.738767437151</v>
       </c>
       <c r="CY7" s="3">
         <f t="shared" si="7"/>
-        <v>16328.760093400853</v>
+        <v>14504.346155111523</v>
       </c>
       <c r="CZ7" s="3">
         <f t="shared" si="7"/>
-        <v>16492.047694334862</v>
+        <v>14649.389616662638</v>
       </c>
       <c r="DA7" s="3">
         <f t="shared" si="7"/>
-        <v>16656.968171278211</v>
+        <v>14795.883512829265</v>
       </c>
       <c r="DB7" s="3">
         <f t="shared" si="7"/>
-        <v>16823.537852990994</v>
+        <v>14943.842347957558</v>
       </c>
       <c r="DC7" s="3">
         <f t="shared" si="7"/>
-        <v>16991.773231520903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15093.280771437134</v>
+      </c>
+      <c r="DD7" s="3">
+        <f t="shared" si="7"/>
+        <v>15244.213579151505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:R8" si="8">+E6-E7</f>
+        <f t="shared" ref="E8:S8" si="8">+E6-E7</f>
         <v>0</v>
       </c>
       <c r="F8" s="6">
@@ -1895,44 +1925,48 @@
         <f t="shared" si="8"/>
         <v>279.19</v>
       </c>
-      <c r="Z8" s="24">
-        <f t="shared" ref="Z8:AH8" si="9">(Z7-Y7)/Y7</f>
+      <c r="S8" s="6">
+        <f t="shared" si="8"/>
+        <v>293.56200000000001</v>
+      </c>
+      <c r="AA8" s="24">
+        <f t="shared" ref="AA8:AI8" si="9">(AA7-Z7)/Z7</f>
         <v>0.32960450494420124</v>
-      </c>
-      <c r="AA8" s="22">
-        <f t="shared" si="9"/>
-        <v>0.3</v>
       </c>
       <c r="AB8" s="22">
         <f t="shared" si="9"/>
-        <v>0.29999999999999993</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AC8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.27999999999999992</v>
       </c>
       <c r="AD8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="AE8" s="22">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="AF8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3000000000000001</v>
+        <v>0.27999999999999992</v>
       </c>
       <c r="AG8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3000000000000001</v>
+        <v>0.28000000000000014</v>
       </c>
       <c r="AH8" s="22">
         <f t="shared" si="9"/>
-        <v>1.0000000000000101E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="AI8" s="22">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1977,8 +2011,11 @@
       <c r="R9" s="5">
         <v>165.214</v>
       </c>
-    </row>
-    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="5">
+        <v>194.102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2024,8 +2061,11 @@
       <c r="R10" s="5">
         <v>96.400999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="5">
+        <v>87.703000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2071,15 +2111,18 @@
       <c r="R11" s="5">
         <v>60.404000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="5">
+        <v>66.308999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:R12" si="10">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:Q12" si="10">SUM(E9:E11)</f>
         <v>0</v>
       </c>
       <c r="F12" s="6">
@@ -2134,15 +2177,19 @@
         <f>SUM(R9:R11)</f>
         <v>322.01900000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="6">
+        <f>SUM(S9:S11)</f>
+        <v>348.11400000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:R13" si="11">E8-E12</f>
+        <f t="shared" ref="E13:S13" si="11">E8-E12</f>
         <v>0</v>
       </c>
       <c r="F13" s="6">
@@ -2197,11 +2244,12 @@
         <f t="shared" si="11"/>
         <v>-42.829000000000008</v>
       </c>
-      <c r="S13" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="6">
+        <f t="shared" si="11"/>
+        <v>-54.552000000000021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2256,15 +2304,18 @@
         <f>20.19-1.069</f>
         <v>19.121000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="5">
+        <v>21.251999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:R15" si="12">+E13+E14</f>
+        <f t="shared" ref="E15:S15" si="12">+E13+E14</f>
         <v>0</v>
       </c>
       <c r="F15" s="6">
@@ -2319,8 +2370,12 @@
         <f t="shared" si="12"/>
         <v>-23.708000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="6">
+        <f t="shared" si="12"/>
+        <v>-33.300000000000026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2367,15 +2422,19 @@
         <f>2.054</f>
         <v>2.0539999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="5">
+        <f>2.269</f>
+        <v>2.2690000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:R17" si="13">+E15-E16</f>
+        <f t="shared" ref="E17:S17" si="13">+E15-E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="6">
@@ -2430,15 +2489,19 @@
         <f t="shared" si="13"/>
         <v>-25.762000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="6">
+        <f t="shared" si="13"/>
+        <v>-35.569000000000024</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="e">
-        <f t="shared" ref="E18:R18" si="14">+E17/E19</f>
+        <f t="shared" ref="E18:S18" si="14">+E17/E19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="7" t="e">
@@ -2493,8 +2556,12 @@
         <f t="shared" si="14"/>
         <v>-7.6540950388914328E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.10505252774061315</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2538,8 +2605,11 @@
       <c r="R19" s="5">
         <v>336.57799999999997</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="5">
+        <v>338.58300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2552,11 +2622,11 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
-        <f t="shared" ref="I21:K21" si="15">+K6/G6-1</f>
+        <f t="shared" ref="K21" si="15">+K6/G6-1</f>
         <v>0.53682952446488708</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" ref="L21:S21" si="16">+L6/H6-1</f>
+        <f t="shared" ref="L21:T21" si="16">+L6/H6-1</f>
         <v>0.53854278741438577</v>
       </c>
       <c r="M21" s="10">
@@ -2585,12 +2655,16 @@
       </c>
       <c r="S21" s="10">
         <f t="shared" si="16"/>
-        <v>0.28543120530714217</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.30472990436805381</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="16"/>
+        <v>0.27717232750069676</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2602,7 +2676,7 @@
         <v>0.1041106805258773</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:S22" si="17">(I6-H6)/H6</f>
+        <f t="shared" ref="I22:T22" si="17">(I6-H6)/H6</f>
         <v>0.13067809063951513</v>
       </c>
       <c r="J22" s="27">
@@ -2643,10 +2717,14 @@
       </c>
       <c r="S22" s="27">
         <f t="shared" si="17"/>
-        <v>2.9042163140426975E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+        <v>4.4491589718406638E-2</v>
+      </c>
+      <c r="T22" s="27">
+        <f t="shared" si="17"/>
+        <v>4.0676175382989899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -2683,7 +2761,7 @@
         <v>0.76204710106303597</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" ref="M23:R23" si="20">+M8/M6</f>
+        <f t="shared" ref="M23:S23" si="20">+M8/M6</f>
         <v>0.75593934619929104</v>
       </c>
       <c r="N23" s="12">
@@ -2706,31 +2784,32 @@
         <f t="shared" si="20"/>
         <v>0.7702366796975223</v>
       </c>
-      <c r="U23" t="s">
+      <c r="S23" s="12">
+        <f t="shared" si="20"/>
+        <v>0.7753882725832012</v>
+      </c>
+      <c r="V23" t="s">
         <v>71</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>72</v>
       </c>
-      <c r="X23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U24" s="15" t="s">
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="V24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="V24" s="23">
-        <v>0.27</v>
-      </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="X24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="X24" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2752,14 +2831,14 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="U25" s="17" t="s">
+      <c r="V25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="16">
+      <c r="W25" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2779,14 +2858,14 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="U26" s="17" t="s">
+      <c r="V26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W26" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2808,22 +2887,22 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="U27" s="17" t="s">
+      <c r="V27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V27" s="18">
-        <f>NPV(V26,V6:DC6)</f>
-        <v>41233.15886070214</v>
-      </c>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="18">
+        <f>NPV(W26,W6:DD6)</f>
+        <v>31483.778190923898</v>
+      </c>
+      <c r="X27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="X27" s="26">
-        <f>NPV($V$26,V7:DC7)</f>
-        <v>47744.856198129775</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="26">
+        <f>NPV($W$26,W7:DD7)</f>
+        <v>37325.420469243487</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
@@ -2843,22 +2922,22 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="U28" s="17" t="s">
+      <c r="V28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="V28" s="21">
+      <c r="W28" s="21">
         <f>Main!$O$3</f>
-        <v>298.08999999999997</v>
-      </c>
-      <c r="W28" s="17" t="s">
+        <v>338.58300000000003</v>
+      </c>
+      <c r="X28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="21">
+      <c r="Y28" s="21">
         <f>Main!$O$3</f>
-        <v>298.08999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>338.58300000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2878,22 +2957,22 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="U29" s="17" t="s">
+      <c r="V29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V29" s="19">
-        <f>V27/V28</f>
-        <v>138.32452903721071</v>
-      </c>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="19">
+        <f>W27/W28</f>
+        <v>92.986884134536865</v>
+      </c>
+      <c r="X29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="X29" s="19">
-        <f>X27/X28</f>
-        <v>160.16926498081042</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y29" s="19">
+        <f>Y27/Y28</f>
+        <v>110.24009022674937</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
@@ -2913,22 +2992,22 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="U30" s="17" t="s">
+      <c r="V30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V30" s="20">
-        <f>(V29-Main!$O$2)/Main!$O$2</f>
-        <v>0.28173210746118149</v>
-      </c>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="20">
+        <f>(W29-Main!$O$2)/Main!$O$2</f>
+        <v>0.24982371148571045</v>
+      </c>
+      <c r="X30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X30" s="20">
-        <f>(X29-Main!$O$2)/Main!$O$2</f>
-        <v>0.48414811879920705</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y30" s="20">
+        <f>(Y29-Main!$O$2)/Main!$O$2</f>
+        <v>0.48172164283265273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -2950,22 +3029,22 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="U31" s="17" t="s">
+      <c r="V31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V31" s="18">
-        <f>V28*V29</f>
-        <v>41233.15886070214</v>
-      </c>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="18">
+        <f>W28*W29</f>
+        <v>31483.778190923898</v>
+      </c>
+      <c r="X31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="X31" s="18">
-        <f>X28*X29</f>
-        <v>47744.856198129775</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y31" s="18">
+        <f>Y28*Y29</f>
+        <v>37325.420469243487</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>39</v>
       </c>

--- a/NET.xlsx
+++ b/NET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030FDE3-6052-4035-A076-30DE4700C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C6A0C-8B2F-4F2E-A60C-700328B73B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="90" windowWidth="14370" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Price</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>74.400000000000006</v>
+        <v>166.66</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -807,7 +810,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>25190.575200000003</v>
+        <v>56428.24278</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -834,7 +837,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>24914.375200000002</v>
+        <v>56152.042780000003</v>
       </c>
     </row>
   </sheetData>
@@ -844,13 +847,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:DD55"/>
+  <dimension ref="A1:DG55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
+      <selection pane="bottomRight" activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,12 +863,13 @@
     <col min="3" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -896,11 +900,11 @@
       <c r="T1" s="14">
         <v>45473</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -961,46 +965,50 @@
       <c r="V2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2">
+      <c r="W2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2">
         <v>2020</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
+      <c r="AB2">
+        <f>+AA2+1</f>
         <v>2021</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:AB2" si="0">+Y2+1</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AE2" si="0">+AB2+1</f>
         <v>2022</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>2025</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>2026</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>2027</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <v>2028</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <v>2029</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1017,60 +1025,60 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="AA4" s="25"/>
-    </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="W5" t="s">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="AD4" s="25"/>
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="Z5" t="s">
         <v>69</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22">
-        <f t="shared" ref="Y5:AI5" si="1">(Y6-X6)/X6</f>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22">
+        <f t="shared" ref="AB5:AL5" si="1">(AB6-AA6)/AA6</f>
         <v>0.52282170190159583</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="AC5" s="22">
         <f t="shared" si="1"/>
         <v>0.48574858399880538</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AD5" s="24">
         <f t="shared" si="1"/>
         <v>0.32960450494420124</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AE5" s="24">
         <f t="shared" si="1"/>
         <v>0.27241964862709755</v>
       </c>
-      <c r="AC5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="AD5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="AE5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
       <c r="AF5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999996</v>
+        <v>0.26787878787878788</v>
       </c>
       <c r="AG5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999991</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="AH5" s="24">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="AI5" s="24">
         <f t="shared" si="1"/>
-        <v>1.0000000000000082E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:108" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="AJ5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="AK5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="AL5" s="24">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999672E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1119,361 +1127,362 @@
         <v>378.6</v>
       </c>
       <c r="T6" s="3">
-        <f>(393.5+394.5)/2</f>
-        <v>394</v>
+        <v>400.99599999999998</v>
       </c>
       <c r="U6" s="3">
-        <f>Q6*1.28</f>
-        <v>429.56800000000004</v>
+        <v>430.08199999999999</v>
       </c>
       <c r="V6" s="3">
-        <f>R6*1.28</f>
-        <v>463.96544</v>
-      </c>
-      <c r="W6" s="3" t="s">
+        <v>459.9</v>
+      </c>
+      <c r="W6" s="3">
+        <f>(468+469)/2</f>
+        <v>468.5</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AA6" s="3">
         <v>431.05900000000003</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AB6" s="3">
         <f>SUM(G6:J6)</f>
         <v>656.42600000000004</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AC6" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>975.28399999999988</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AD6" s="3">
         <f>SUM(O6:R6)</f>
         <v>1296.7420000000002</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AE6" s="3">
         <f>(1648+1652)/2</f>
         <v>1650</v>
       </c>
-      <c r="AC6" s="3">
-        <f t="shared" ref="AC6:AH6" si="2">AB6*(1+$W$24)</f>
-        <v>2046</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="2"/>
-        <v>2537.04</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="2"/>
-        <v>3145.9295999999999</v>
-      </c>
       <c r="AF6" s="3">
-        <f t="shared" si="2"/>
-        <v>3900.9527039999998</v>
+        <f>(2090+2094)/2</f>
+        <v>2092</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="2"/>
-        <v>4837.1813529599995</v>
+        <f>AF6*(1+$AA$24)</f>
+        <v>2656.84</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="2"/>
-        <v>5998.1048776703992</v>
+        <f>AG6*(1+$AA$24)</f>
+        <v>3374.1868000000004</v>
       </c>
       <c r="AI6" s="3">
-        <f>AH6*(1+$W$25)</f>
-        <v>6058.0859264471037</v>
+        <f>AH6*(1+$AA$24)</f>
+        <v>4285.2172360000004</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" ref="AJ6:CU6" si="3">AI6*(1+$W$25)</f>
-        <v>6118.6667857115744</v>
+        <f>AI6*(1+$AA$24)</f>
+        <v>5442.2258897200009</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="3"/>
-        <v>6179.8534535686904</v>
+        <f>AJ6*(1+$AA$24)</f>
+        <v>6911.6268799444015</v>
       </c>
       <c r="AL6" s="3">
-        <f t="shared" si="3"/>
-        <v>6241.6519881043778</v>
+        <f>AK6*(1+$AA$25)</f>
+        <v>6980.7431487438453</v>
       </c>
       <c r="AM6" s="3">
-        <f t="shared" si="3"/>
-        <v>6304.068507985422</v>
+        <f>AL6*(1+$AA$25)</f>
+        <v>7050.5505802312837</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="3"/>
-        <v>6367.1091930652765</v>
+        <f>AM6*(1+$AA$25)</f>
+        <v>7121.0560860335963</v>
       </c>
       <c r="AO6" s="3">
-        <f t="shared" si="3"/>
-        <v>6430.7802849959289</v>
+        <f>AN6*(1+$AA$25)</f>
+        <v>7192.2666468939324</v>
       </c>
       <c r="AP6" s="3">
-        <f t="shared" si="3"/>
-        <v>6495.0880878458884</v>
+        <f>AO6*(1+$AA$25)</f>
+        <v>7264.1893133628719</v>
       </c>
       <c r="AQ6" s="3">
-        <f t="shared" si="3"/>
-        <v>6560.0389687243469</v>
+        <f>AP6*(1+$AA$25)</f>
+        <v>7336.8312064965003</v>
       </c>
       <c r="AR6" s="3">
-        <f t="shared" si="3"/>
-        <v>6625.6393584115904</v>
+        <f>AQ6*(1+$AA$25)</f>
+        <v>7410.1995185614651</v>
       </c>
       <c r="AS6" s="3">
-        <f t="shared" si="3"/>
-        <v>6691.8957519957066</v>
+        <f>AR6*(1+$AA$25)</f>
+        <v>7484.3015137470802</v>
       </c>
       <c r="AT6" s="3">
-        <f t="shared" si="3"/>
-        <v>6758.8147095156637</v>
+        <f>AS6*(1+$AA$25)</f>
+        <v>7559.1445288845507</v>
       </c>
       <c r="AU6" s="3">
-        <f t="shared" si="3"/>
-        <v>6826.40285661082</v>
+        <f>AT6*(1+$AA$25)</f>
+        <v>7634.7359741733962</v>
       </c>
       <c r="AV6" s="3">
-        <f t="shared" si="3"/>
-        <v>6894.6668851769282</v>
+        <f>AU6*(1+$AA$25)</f>
+        <v>7711.0833339151304</v>
       </c>
       <c r="AW6" s="3">
-        <f t="shared" si="3"/>
-        <v>6963.6135540286978</v>
+        <f>AV6*(1+$AA$25)</f>
+        <v>7788.1941672542816</v>
       </c>
       <c r="AX6" s="3">
-        <f t="shared" si="3"/>
-        <v>7033.2496895689846</v>
+        <f>AW6*(1+$AA$25)</f>
+        <v>7866.0761089268244</v>
       </c>
       <c r="AY6" s="3">
-        <f t="shared" si="3"/>
-        <v>7103.5821864646741</v>
+        <f>AX6*(1+$AA$25)</f>
+        <v>7944.7368700160923</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" si="3"/>
-        <v>7174.6180083293211</v>
+        <f>AY6*(1+$AA$25)</f>
+        <v>8024.1842387162533</v>
       </c>
       <c r="BA6" s="3">
-        <f t="shared" si="3"/>
-        <v>7246.3641884126146</v>
+        <f>AZ6*(1+$AA$25)</f>
+        <v>8104.4260811034155</v>
       </c>
       <c r="BB6" s="3">
-        <f t="shared" si="3"/>
-        <v>7318.827830296741</v>
+        <f>BA6*(1+$AA$25)</f>
+        <v>8185.4703419144498</v>
       </c>
       <c r="BC6" s="3">
-        <f t="shared" si="3"/>
-        <v>7392.0161085997088</v>
+        <f>BB6*(1+$AA$25)</f>
+        <v>8267.325045333595</v>
       </c>
       <c r="BD6" s="3">
-        <f t="shared" si="3"/>
-        <v>7465.9362696857061</v>
+        <f>BC6*(1+$AA$25)</f>
+        <v>8349.9982957869306</v>
       </c>
       <c r="BE6" s="3">
-        <f t="shared" si="3"/>
-        <v>7540.5956323825631</v>
+        <f>BD6*(1+$AA$25)</f>
+        <v>8433.4982787448007</v>
       </c>
       <c r="BF6" s="3">
-        <f t="shared" si="3"/>
-        <v>7616.0015887063892</v>
+        <f>BE6*(1+$AA$25)</f>
+        <v>8517.8332615322488</v>
       </c>
       <c r="BG6" s="3">
-        <f t="shared" si="3"/>
-        <v>7692.1616045934534</v>
+        <f>BF6*(1+$AA$25)</f>
+        <v>8603.0115941475706</v>
       </c>
       <c r="BH6" s="3">
-        <f t="shared" si="3"/>
-        <v>7769.0832206393879</v>
+        <f>BG6*(1+$AA$25)</f>
+        <v>8689.0417100890463</v>
       </c>
       <c r="BI6" s="3">
-        <f t="shared" si="3"/>
-        <v>7846.7740528457816</v>
+        <f>BH6*(1+$AA$25)</f>
+        <v>8775.9321271899371</v>
       </c>
       <c r="BJ6" s="3">
-        <f t="shared" si="3"/>
-        <v>7925.2417933742399</v>
+        <f>BI6*(1+$AA$25)</f>
+        <v>8863.6914484618374</v>
       </c>
       <c r="BK6" s="3">
-        <f t="shared" si="3"/>
-        <v>8004.4942113079824</v>
+        <f>BJ6*(1+$AA$25)</f>
+        <v>8952.3283629464549</v>
       </c>
       <c r="BL6" s="3">
-        <f t="shared" si="3"/>
-        <v>8084.5391534210621</v>
+        <f>BK6*(1+$AA$25)</f>
+        <v>9041.8516465759203</v>
       </c>
       <c r="BM6" s="3">
-        <f t="shared" si="3"/>
-        <v>8165.3845449552728</v>
+        <f>BL6*(1+$AA$25)</f>
+        <v>9132.2701630416796</v>
       </c>
       <c r="BN6" s="3">
-        <f t="shared" si="3"/>
-        <v>8247.0383904048249</v>
+        <f>BM6*(1+$AA$25)</f>
+        <v>9223.5928646720968</v>
       </c>
       <c r="BO6" s="3">
-        <f t="shared" si="3"/>
-        <v>8329.5087743088734</v>
+        <f>BN6*(1+$AA$25)</f>
+        <v>9315.8287933188185</v>
       </c>
       <c r="BP6" s="3">
-        <f t="shared" si="3"/>
-        <v>8412.8038620519619</v>
+        <f>BO6*(1+$AA$25)</f>
+        <v>9408.9870812520076</v>
       </c>
       <c r="BQ6" s="3">
-        <f t="shared" si="3"/>
-        <v>8496.9319006724818</v>
+        <f>BP6*(1+$AA$25)</f>
+        <v>9503.0769520645281</v>
       </c>
       <c r="BR6" s="3">
-        <f t="shared" si="3"/>
-        <v>8581.9012196792064</v>
+        <f>BQ6*(1+$AA$25)</f>
+        <v>9598.1077215851728</v>
       </c>
       <c r="BS6" s="3">
-        <f t="shared" si="3"/>
-        <v>8667.7202318759992</v>
+        <f>BR6*(1+$AA$25)</f>
+        <v>9694.0887988010254</v>
       </c>
       <c r="BT6" s="3">
-        <f t="shared" si="3"/>
-        <v>8754.3974341947596</v>
+        <f>BS6*(1+$AA$25)</f>
+        <v>9791.0296867890356</v>
       </c>
       <c r="BU6" s="3">
-        <f t="shared" si="3"/>
-        <v>8841.941408536708</v>
+        <f>BT6*(1+$AA$25)</f>
+        <v>9888.9399836569264</v>
       </c>
       <c r="BV6" s="3">
-        <f t="shared" si="3"/>
-        <v>8930.3608226220749</v>
+        <f>BU6*(1+$AA$25)</f>
+        <v>9987.8293834934957</v>
       </c>
       <c r="BW6" s="3">
-        <f t="shared" si="3"/>
-        <v>9019.6644308482955</v>
+        <f>BV6*(1+$AA$25)</f>
+        <v>10087.707677328432</v>
       </c>
       <c r="BX6" s="3">
-        <f t="shared" si="3"/>
-        <v>9109.8610751567794</v>
+        <f>BW6*(1+$AA$25)</f>
+        <v>10188.584754101716</v>
       </c>
       <c r="BY6" s="3">
-        <f t="shared" si="3"/>
-        <v>9200.9596859083467</v>
+        <f>BX6*(1+$AA$25)</f>
+        <v>10290.470601642734</v>
       </c>
       <c r="BZ6" s="3">
-        <f t="shared" si="3"/>
-        <v>9292.9692827674298</v>
+        <f>BY6*(1+$AA$25)</f>
+        <v>10393.37530765916</v>
       </c>
       <c r="CA6" s="3">
-        <f t="shared" si="3"/>
-        <v>9385.8989755951043</v>
+        <f>BZ6*(1+$AA$25)</f>
+        <v>10497.309060735752</v>
       </c>
       <c r="CB6" s="3">
-        <f t="shared" si="3"/>
-        <v>9479.7579653510547</v>
+        <f>CA6*(1+$AA$25)</f>
+        <v>10602.28215134311</v>
       </c>
       <c r="CC6" s="3">
-        <f t="shared" si="3"/>
-        <v>9574.5555450045649</v>
+        <f>CB6*(1+$AA$25)</f>
+        <v>10708.304972856542</v>
       </c>
       <c r="CD6" s="3">
-        <f t="shared" si="3"/>
-        <v>9670.3011004546115</v>
+        <f>CC6*(1+$AA$25)</f>
+        <v>10815.388022585108</v>
       </c>
       <c r="CE6" s="3">
-        <f t="shared" si="3"/>
-        <v>9767.0041114591586</v>
+        <f>CD6*(1+$AA$25)</f>
+        <v>10923.541902810959</v>
       </c>
       <c r="CF6" s="3">
-        <f t="shared" si="3"/>
-        <v>9864.6741525737507</v>
+        <f>CE6*(1+$AA$25)</f>
+        <v>11032.777321839068</v>
       </c>
       <c r="CG6" s="3">
-        <f t="shared" si="3"/>
-        <v>9963.3208940994882</v>
+        <f>CF6*(1+$AA$25)</f>
+        <v>11143.105095057459</v>
       </c>
       <c r="CH6" s="3">
-        <f t="shared" si="3"/>
-        <v>10062.954103040483</v>
+        <f>CG6*(1+$AA$25)</f>
+        <v>11254.536146008033</v>
       </c>
       <c r="CI6" s="3">
-        <f t="shared" si="3"/>
-        <v>10163.583644070888</v>
+        <f>CH6*(1+$AA$25)</f>
+        <v>11367.081507468114</v>
       </c>
       <c r="CJ6" s="3">
-        <f t="shared" si="3"/>
-        <v>10265.219480511598</v>
+        <f>CI6*(1+$AA$25)</f>
+        <v>11480.752322542796</v>
       </c>
       <c r="CK6" s="3">
-        <f t="shared" si="3"/>
-        <v>10367.871675316714</v>
+        <f>CJ6*(1+$AA$25)</f>
+        <v>11595.559845768224</v>
       </c>
       <c r="CL6" s="3">
-        <f t="shared" si="3"/>
-        <v>10471.550392069881</v>
+        <f>CK6*(1+$AA$25)</f>
+        <v>11711.515444225906</v>
       </c>
       <c r="CM6" s="3">
-        <f t="shared" si="3"/>
-        <v>10576.26589599058</v>
+        <f>CL6*(1+$AA$25)</f>
+        <v>11828.630598668165</v>
       </c>
       <c r="CN6" s="3">
-        <f t="shared" si="3"/>
-        <v>10682.028554950486</v>
+        <f>CM6*(1+$AA$25)</f>
+        <v>11946.916904654847</v>
       </c>
       <c r="CO6" s="3">
-        <f t="shared" si="3"/>
-        <v>10788.848840499992</v>
+        <f>CN6*(1+$AA$25)</f>
+        <v>12066.386073701395</v>
       </c>
       <c r="CP6" s="3">
-        <f t="shared" si="3"/>
-        <v>10896.737328904992</v>
+        <f>CO6*(1+$AA$25)</f>
+        <v>12187.049934438408</v>
       </c>
       <c r="CQ6" s="3">
-        <f t="shared" si="3"/>
-        <v>11005.704702194042</v>
+        <f>CP6*(1+$AA$25)</f>
+        <v>12308.920433782792</v>
       </c>
       <c r="CR6" s="3">
-        <f t="shared" si="3"/>
-        <v>11115.761749215982</v>
+        <f>CQ6*(1+$AA$25)</f>
+        <v>12432.00963812062</v>
       </c>
       <c r="CS6" s="3">
-        <f t="shared" si="3"/>
-        <v>11226.919366708142</v>
+        <f>CR6*(1+$AA$25)</f>
+        <v>12556.329734501827</v>
       </c>
       <c r="CT6" s="3">
-        <f t="shared" si="3"/>
-        <v>11339.188560375223</v>
+        <f>CS6*(1+$AA$25)</f>
+        <v>12681.893031846846</v>
       </c>
       <c r="CU6" s="3">
-        <f t="shared" si="3"/>
-        <v>11452.580445978976</v>
+        <f>CT6*(1+$AA$25)</f>
+        <v>12808.711962165315</v>
       </c>
       <c r="CV6" s="3">
-        <f t="shared" ref="CV6:DD6" si="4">CU6*(1+$W$25)</f>
-        <v>11567.106250438766</v>
+        <f>CU6*(1+$AA$25)</f>
+        <v>12936.799081786969</v>
       </c>
       <c r="CW6" s="3">
-        <f t="shared" si="4"/>
-        <v>11682.777312943153</v>
+        <f>CV6*(1+$AA$25)</f>
+        <v>13066.167072604838</v>
       </c>
       <c r="CX6" s="3">
-        <f t="shared" si="4"/>
-        <v>11799.605086072585</v>
+        <f>CW6*(1+$AA$25)</f>
+        <v>13196.828743330887</v>
       </c>
       <c r="CY6" s="3">
-        <f t="shared" si="4"/>
-        <v>11917.60113693331</v>
+        <f>CX6*(1+$AA$25)</f>
+        <v>13328.797030764195</v>
       </c>
       <c r="CZ6" s="3">
-        <f t="shared" si="4"/>
-        <v>12036.777148302643</v>
+        <f>CY6*(1+$AA$25)</f>
+        <v>13462.085001071837</v>
       </c>
       <c r="DA6" s="3">
-        <f t="shared" si="4"/>
-        <v>12157.144919785669</v>
+        <f>CZ6*(1+$AA$25)</f>
+        <v>13596.705851082555</v>
       </c>
       <c r="DB6" s="3">
-        <f t="shared" si="4"/>
-        <v>12278.716368983525</v>
+        <f>DA6*(1+$AA$25)</f>
+        <v>13732.672909593381</v>
       </c>
       <c r="DC6" s="3">
-        <f t="shared" si="4"/>
-        <v>12401.503532673361</v>
+        <f>DB6*(1+$AA$25)</f>
+        <v>13869.999638689314</v>
       </c>
       <c r="DD6" s="3">
-        <f t="shared" si="4"/>
-        <v>12525.518568000096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f>DC6*(1+$AA$25)</f>
+        <v>14008.699635076207</v>
+      </c>
+      <c r="DE6" s="3">
+        <f>DD6*(1+$AA$25)</f>
+        <v>14148.78663142697</v>
+      </c>
+      <c r="DF6" s="3">
+        <f>DE6*(1+$AA$25)</f>
+        <v>14290.27449774124</v>
+      </c>
+      <c r="DG6" s="3">
+        <f>DF6*(1+$AA$25)</f>
+        <v>14433.177242718653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1521,452 +1530,470 @@
       <c r="S7" s="5">
         <v>85.037999999999997</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="T7" s="5">
+        <v>89.010999999999996</v>
+      </c>
+      <c r="U7" s="5">
+        <v>95.966999999999999</v>
+      </c>
+      <c r="V7" s="5">
+        <v>108.68600000000001</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AA7" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AB7" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AC7" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>975.28399999999988</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AD7" s="5">
         <f>SUM(O6:R6)</f>
         <v>1296.7420000000002</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" ref="AB7:AH7" si="5">AA7*(1+$Y$24)</f>
+      <c r="AE7" s="3">
+        <f>AD7*(1+$AC$24)</f>
         <v>1659.8297600000003</v>
       </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AF7" s="3">
+        <f>AE7*(1+$AC$24)</f>
         <v>2124.5820928000003</v>
       </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AG7" s="3">
+        <f>AF7*(1+$AC$24)</f>
         <v>2719.4650787840005</v>
       </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AH7" s="3">
+        <f>AG7*(1+$AC$24)</f>
         <v>3480.9153008435205</v>
       </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AI7" s="3">
+        <f>AH7*(1+$AC$24)</f>
         <v>4455.571585079706</v>
       </c>
-      <c r="AG7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AJ7" s="3">
+        <f>AI7*(1+$AC$24)</f>
         <v>5703.1316289020242</v>
       </c>
-      <c r="AH7" s="3">
-        <f t="shared" si="5"/>
+      <c r="AK7" s="3">
+        <f>AJ7*(1+$AC$24)</f>
         <v>7300.0084849945915</v>
       </c>
-      <c r="AI7" s="3">
-        <f>AH7*(1+$W$25)</f>
+      <c r="AL7" s="3">
+        <f>AK7*(1+$AA$25)</f>
         <v>7373.0085698445373</v>
       </c>
-      <c r="AJ7" s="3">
-        <f>AI7*(1+$W$25)</f>
+      <c r="AM7" s="3">
+        <f>AL7*(1+$AA$25)</f>
         <v>7446.738655542983</v>
       </c>
-      <c r="AK7" s="3">
-        <f t="shared" ref="AK7:CV7" si="6">AJ7*(1+$W$25)</f>
+      <c r="AN7" s="3">
+        <f>AM7*(1+$AA$25)</f>
         <v>7521.2060420984126</v>
       </c>
-      <c r="AL7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AO7" s="3">
+        <f>AN7*(1+$AA$25)</f>
         <v>7596.4181025193966</v>
       </c>
-      <c r="AM7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AP7" s="3">
+        <f>AO7*(1+$AA$25)</f>
         <v>7672.3822835445908</v>
       </c>
-      <c r="AN7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AQ7" s="3">
+        <f>AP7*(1+$AA$25)</f>
         <v>7749.1061063800371</v>
       </c>
-      <c r="AO7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AR7" s="3">
+        <f>AQ7*(1+$AA$25)</f>
         <v>7826.5971674438379</v>
       </c>
-      <c r="AP7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AS7" s="3">
+        <f>AR7*(1+$AA$25)</f>
         <v>7904.8631391182762</v>
       </c>
-      <c r="AQ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AT7" s="3">
+        <f>AS7*(1+$AA$25)</f>
         <v>7983.9117705094586</v>
       </c>
-      <c r="AR7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AU7" s="3">
+        <f>AT7*(1+$AA$25)</f>
         <v>8063.750888214553</v>
       </c>
-      <c r="AS7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AV7" s="3">
+        <f>AU7*(1+$AA$25)</f>
         <v>8144.388397096699</v>
       </c>
-      <c r="AT7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AW7" s="3">
+        <f>AV7*(1+$AA$25)</f>
         <v>8225.8322810676655</v>
       </c>
-      <c r="AU7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AX7" s="3">
+        <f>AW7*(1+$AA$25)</f>
         <v>8308.0906038783414</v>
       </c>
-      <c r="AV7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AY7" s="3">
+        <f>AX7*(1+$AA$25)</f>
         <v>8391.1715099171251</v>
       </c>
-      <c r="AW7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AZ7" s="3">
+        <f>AY7*(1+$AA$25)</f>
         <v>8475.0832250162966</v>
       </c>
-      <c r="AX7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BA7" s="3">
+        <f>AZ7*(1+$AA$25)</f>
         <v>8559.8340572664601</v>
       </c>
-      <c r="AY7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BB7" s="3">
+        <f>BA7*(1+$AA$25)</f>
         <v>8645.432397839124</v>
       </c>
-      <c r="AZ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BC7" s="3">
+        <f>BB7*(1+$AA$25)</f>
         <v>8731.8867218175146</v>
       </c>
-      <c r="BA7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD7" s="3">
+        <f>BC7*(1+$AA$25)</f>
         <v>8819.2055890356896</v>
       </c>
-      <c r="BB7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BE7" s="3">
+        <f>BD7*(1+$AA$25)</f>
         <v>8907.3976449260463</v>
       </c>
-      <c r="BC7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BF7" s="3">
+        <f>BE7*(1+$AA$25)</f>
         <v>8996.4716213753072</v>
       </c>
-      <c r="BD7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BG7" s="3">
+        <f>BF7*(1+$AA$25)</f>
         <v>9086.4363375890607</v>
       </c>
-      <c r="BE7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BH7" s="3">
+        <f>BG7*(1+$AA$25)</f>
         <v>9177.3007009649518</v>
       </c>
-      <c r="BF7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BI7" s="3">
+        <f>BH7*(1+$AA$25)</f>
         <v>9269.0737079746013</v>
       </c>
-      <c r="BG7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BJ7" s="3">
+        <f>BI7*(1+$AA$25)</f>
         <v>9361.7644450543467</v>
       </c>
-      <c r="BH7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BK7" s="3">
+        <f>BJ7*(1+$AA$25)</f>
         <v>9455.3820895048902</v>
       </c>
-      <c r="BI7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BL7" s="3">
+        <f>BK7*(1+$AA$25)</f>
         <v>9549.9359103999395</v>
       </c>
-      <c r="BJ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BM7" s="3">
+        <f>BL7*(1+$AA$25)</f>
         <v>9645.4352695039397</v>
       </c>
-      <c r="BK7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BN7" s="3">
+        <f>BM7*(1+$AA$25)</f>
         <v>9741.8896221989799</v>
       </c>
-      <c r="BL7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BO7" s="3">
+        <f>BN7*(1+$AA$25)</f>
         <v>9839.3085184209704</v>
       </c>
-      <c r="BM7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BP7" s="3">
+        <f>BO7*(1+$AA$25)</f>
         <v>9937.7016036051809</v>
       </c>
-      <c r="BN7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BQ7" s="3">
+        <f>BP7*(1+$AA$25)</f>
         <v>10037.078619641234</v>
       </c>
-      <c r="BO7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BR7" s="3">
+        <f>BQ7*(1+$AA$25)</f>
         <v>10137.449405837646</v>
       </c>
-      <c r="BP7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BS7" s="3">
+        <f>BR7*(1+$AA$25)</f>
         <v>10238.823899896022</v>
       </c>
-      <c r="BQ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BT7" s="3">
+        <f>BS7*(1+$AA$25)</f>
         <v>10341.212138894982</v>
       </c>
-      <c r="BR7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BU7" s="3">
+        <f>BT7*(1+$AA$25)</f>
         <v>10444.624260283932</v>
       </c>
-      <c r="BS7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BV7" s="3">
+        <f>BU7*(1+$AA$25)</f>
         <v>10549.070502886771</v>
       </c>
-      <c r="BT7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BW7" s="3">
+        <f>BV7*(1+$AA$25)</f>
         <v>10654.561207915638</v>
       </c>
-      <c r="BU7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BX7" s="3">
+        <f>BW7*(1+$AA$25)</f>
         <v>10761.106819994795</v>
       </c>
-      <c r="BV7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BY7" s="3">
+        <f>BX7*(1+$AA$25)</f>
         <v>10868.717888194744</v>
       </c>
-      <c r="BW7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BZ7" s="3">
+        <f>BY7*(1+$AA$25)</f>
         <v>10977.405067076692</v>
       </c>
-      <c r="BX7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CA7" s="3">
+        <f>BZ7*(1+$AA$25)</f>
         <v>11087.179117747459</v>
       </c>
-      <c r="BY7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CB7" s="3">
+        <f>CA7*(1+$AA$25)</f>
         <v>11198.050908924934</v>
       </c>
-      <c r="BZ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CC7" s="3">
+        <f>CB7*(1+$AA$25)</f>
         <v>11310.031418014183</v>
       </c>
-      <c r="CA7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CD7" s="3">
+        <f>CC7*(1+$AA$25)</f>
         <v>11423.131732194324</v>
       </c>
-      <c r="CB7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CE7" s="3">
+        <f>CD7*(1+$AA$25)</f>
         <v>11537.363049516267</v>
       </c>
-      <c r="CC7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CF7" s="3">
+        <f>CE7*(1+$AA$25)</f>
         <v>11652.736680011431</v>
       </c>
-      <c r="CD7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CG7" s="3">
+        <f>CF7*(1+$AA$25)</f>
         <v>11769.264046811544</v>
       </c>
-      <c r="CE7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CH7" s="3">
+        <f>CG7*(1+$AA$25)</f>
         <v>11886.95668727966</v>
       </c>
-      <c r="CF7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CI7" s="3">
+        <f>CH7*(1+$AA$25)</f>
         <v>12005.826254152456</v>
       </c>
-      <c r="CG7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CJ7" s="3">
+        <f>CI7*(1+$AA$25)</f>
         <v>12125.884516693981</v>
       </c>
-      <c r="CH7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CK7" s="3">
+        <f>CJ7*(1+$AA$25)</f>
         <v>12247.143361860921</v>
       </c>
-      <c r="CI7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CL7" s="3">
+        <f>CK7*(1+$AA$25)</f>
         <v>12369.614795479531</v>
       </c>
-      <c r="CJ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CM7" s="3">
+        <f>CL7*(1+$AA$25)</f>
         <v>12493.310943434326</v>
       </c>
-      <c r="CK7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CN7" s="3">
+        <f>CM7*(1+$AA$25)</f>
         <v>12618.244052868669</v>
       </c>
-      <c r="CL7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CO7" s="3">
+        <f>CN7*(1+$AA$25)</f>
         <v>12744.426493397355</v>
       </c>
-      <c r="CM7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CP7" s="3">
+        <f>CO7*(1+$AA$25)</f>
         <v>12871.87075833133</v>
       </c>
-      <c r="CN7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CQ7" s="3">
+        <f>CP7*(1+$AA$25)</f>
         <v>13000.589465914643</v>
       </c>
-      <c r="CO7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CR7" s="3">
+        <f>CQ7*(1+$AA$25)</f>
         <v>13130.59536057379</v>
       </c>
-      <c r="CP7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CS7" s="3">
+        <f>CR7*(1+$AA$25)</f>
         <v>13261.901314179528</v>
       </c>
-      <c r="CQ7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CT7" s="3">
+        <f>CS7*(1+$AA$25)</f>
         <v>13394.520327321323</v>
       </c>
-      <c r="CR7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CU7" s="3">
+        <f>CT7*(1+$AA$25)</f>
         <v>13528.465530594536</v>
       </c>
-      <c r="CS7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CV7" s="3">
+        <f>CU7*(1+$AA$25)</f>
         <v>13663.750185900482</v>
       </c>
-      <c r="CT7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CW7" s="3">
+        <f>CV7*(1+$AA$25)</f>
         <v>13800.387687759487</v>
       </c>
-      <c r="CU7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CX7" s="3">
+        <f>CW7*(1+$AA$25)</f>
         <v>13938.391564637082</v>
       </c>
-      <c r="CV7" s="3">
-        <f t="shared" si="6"/>
+      <c r="CY7" s="3">
+        <f>CX7*(1+$AA$25)</f>
         <v>14077.775480283453</v>
       </c>
-      <c r="CW7" s="3">
-        <f t="shared" ref="CW7:DD7" si="7">CV7*(1+$W$25)</f>
+      <c r="CZ7" s="3">
+        <f>CY7*(1+$AA$25)</f>
         <v>14218.553235086289</v>
       </c>
-      <c r="CX7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DA7" s="3">
+        <f>CZ7*(1+$AA$25)</f>
         <v>14360.738767437151</v>
       </c>
-      <c r="CY7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DB7" s="3">
+        <f>DA7*(1+$AA$25)</f>
         <v>14504.346155111523</v>
       </c>
-      <c r="CZ7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DC7" s="3">
+        <f>DB7*(1+$AA$25)</f>
         <v>14649.389616662638</v>
       </c>
-      <c r="DA7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DD7" s="3">
+        <f>DC7*(1+$AA$25)</f>
         <v>14795.883512829265</v>
       </c>
-      <c r="DB7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DE7" s="3">
+        <f>DD7*(1+$AA$25)</f>
         <v>14943.842347957558</v>
       </c>
-      <c r="DC7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DF7" s="3">
+        <f>DE7*(1+$AA$25)</f>
         <v>15093.280771437134</v>
       </c>
-      <c r="DD7" s="3">
-        <f t="shared" si="7"/>
+      <c r="DG7" s="3">
+        <f>DF7*(1+$AA$25)</f>
         <v>15244.213579151505</v>
       </c>
     </row>
-    <row r="8" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:S8" si="8">+E6-E7</f>
+        <f t="shared" ref="E8:S8" si="2">+E6-E7</f>
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>105.971</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>117.399</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>134.822</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>151.10000000000002</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>165.11599999999999</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>178.71299999999999</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>191.93299999999999</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>206.89999999999998</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>219.74299999999999</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>233.27300000000002</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>257.5</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>279.19</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>293.56200000000001</v>
       </c>
-      <c r="AA8" s="24">
-        <f t="shared" ref="AA8:AI8" si="9">(AA7-Z7)/Z7</f>
+      <c r="T8" s="5">
+        <v>311.98500000000001</v>
+      </c>
+      <c r="U8" s="5">
+        <v>334.11500000000001</v>
+      </c>
+      <c r="V8" s="5">
+        <v>351.26</v>
+      </c>
+      <c r="AD8" s="24">
+        <f t="shared" ref="AD8:AL8" si="3">(AD7-AC7)/AC7</f>
         <v>0.32960450494420124</v>
       </c>
-      <c r="AB8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AE8" s="22">
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AC8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AF8" s="22">
+        <f t="shared" si="3"/>
         <v>0.27999999999999992</v>
       </c>
-      <c r="AD8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AG8" s="22">
+        <f t="shared" si="3"/>
         <v>0.28000000000000008</v>
       </c>
-      <c r="AE8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AH8" s="22">
+        <f t="shared" si="3"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="AF8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AI8" s="22">
+        <f t="shared" si="3"/>
         <v>0.27999999999999992</v>
       </c>
-      <c r="AG8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ8" s="22">
+        <f t="shared" si="3"/>
         <v>0.28000000000000014</v>
       </c>
-      <c r="AH8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AK8" s="22">
+        <f t="shared" si="3"/>
         <v>0.28000000000000008</v>
       </c>
-      <c r="AI8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AL8" s="22">
+        <f t="shared" si="3"/>
         <v>9.9999999999999811E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -2014,8 +2041,17 @@
       <c r="S9" s="5">
         <v>194.102</v>
       </c>
-    </row>
-    <row r="10" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="5">
+        <v>174.501</v>
+      </c>
+      <c r="U9" s="5">
+        <v>185.221</v>
+      </c>
+      <c r="V9" s="5">
+        <v>191.96700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2064,8 +2100,18 @@
       <c r="S10" s="5">
         <v>87.703000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="5">
+        <v>102.547</v>
+      </c>
+      <c r="U10" s="5">
+        <v>110.911</v>
+      </c>
+      <c r="V10" s="5">
+        <f>120.213</f>
+        <v>120.21299999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2114,63 +2160,73 @@
       <c r="S11" s="5">
         <v>66.308999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="5">
+        <v>69.635000000000005</v>
+      </c>
+      <c r="U11" s="5">
+        <v>68.777000000000001</v>
+      </c>
+      <c r="V11" s="5">
+        <f>73.799</f>
+        <v>73.799000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:Q12" si="10">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:Q12" si="4">SUM(E9:E11)</f>
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>137.22499999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>146.27099999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>161.316</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>192.16399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>205.14</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>243.25399999999999</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>237.833</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>257.572</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>267.01500000000004</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>289.44499999999999</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>296.7</v>
       </c>
       <c r="R12" s="6">
@@ -2181,39 +2237,51 @@
         <f>SUM(S9:S11)</f>
         <v>348.11400000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="6">
+        <f>SUM(T9:T11)</f>
+        <v>346.68299999999999</v>
+      </c>
+      <c r="U12" s="6">
+        <f>SUM(U9:U11)</f>
+        <v>364.90899999999999</v>
+      </c>
+      <c r="V12" s="6">
+        <f>SUM(V9:V11)</f>
+        <v>385.97900000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:S13" si="11">E8-E12</f>
+        <f t="shared" ref="E13:V13" si="5">E8-E12</f>
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-31.253999999999991</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-28.871999999999986</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-26.494</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-41.063999999999965</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-40.024000000000001</v>
       </c>
       <c r="L13" s="6">
@@ -2221,35 +2289,47 @@
         <v>-64.540999999999997</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-45.900000000000006</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-50.672000000000025</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-47.272000000000048</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-56.171999999999969</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-39.199999999999989</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-42.829000000000008</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-54.552000000000021</v>
       </c>
-    </row>
-    <row r="14" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="6">
+        <f t="shared" si="5"/>
+        <v>-34.697999999999979</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="5"/>
+        <v>-30.793999999999983</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="5"/>
+        <v>-34.719000000000051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2307,75 +2387,97 @@
       <c r="S14" s="5">
         <v>21.251999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="5">
+        <v>21.715</v>
+      </c>
+      <c r="U14" s="5">
+        <v>22.471</v>
+      </c>
+      <c r="V14" s="5">
+        <f>21.988</f>
+        <v>21.988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:S15" si="12">+E13+E14</f>
+        <f t="shared" ref="E15:V15" si="6">+E13+E14</f>
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-40.795999999999992</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-39.819999999999986</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-110.42999999999999</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-56.929999999999964</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-41.006999999999998</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-63.706999999999994</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-41.154000000000003</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-43.272000000000027</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-36.768000000000043</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-93.001999999999967</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-22.27099999999999</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-23.708000000000006</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-33.300000000000026</v>
       </c>
-    </row>
-    <row r="16" spans="1:108" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="6">
+        <f t="shared" si="6"/>
+        <v>-12.982999999999979</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="6"/>
+        <v>-8.3229999999999826</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="6"/>
+        <v>-12.731000000000051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2426,142 +2528,176 @@
         <f>2.269</f>
         <v>2.2690000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="5">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="U16" s="5">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="V16" s="5">
+        <f>2.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:S17" si="13">+E15-E16</f>
+        <f t="shared" ref="E17:V17" si="7">+E15-E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-39.962999999999994</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-35.509999999999984</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-107.33499999999999</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-61.024999999999963</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-41.381</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-63.536999999999992</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-42.526000000000003</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-44.34400000000003</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-38.082000000000043</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-94.46699999999997</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-23.524999999999991</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-25.762000000000004</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-35.569000000000024</v>
       </c>
-    </row>
-    <row r="18" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="6">
+        <f t="shared" si="7"/>
+        <v>-14.12899999999998</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="7"/>
+        <v>-10.831999999999983</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="7"/>
+        <v>-14.73600000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="e">
-        <f t="shared" ref="E18:S18" si="14">+E17/E19</f>
+        <f t="shared" ref="E18:V18" si="8">+E17/E19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.13066337090113683</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.11519384421743767</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.34124110217045045</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.19539192049205772</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.12798221034595805</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.19538003118109942</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.13021219265746045</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.13588615275241175</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.11526412804300398</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.28428484157244865</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-7.0293964729013378E-2</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-7.6540950388914328E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-0.10505252774061315</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="7">
+        <f t="shared" si="8"/>
+        <v>-4.1476832390033053E-2</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="8"/>
+        <v>-3.1639579852551093E-2</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="8"/>
+        <v>-4.2836835725269987E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2608,8 +2744,17 @@
       <c r="S19" s="5">
         <v>338.58300000000003</v>
       </c>
-    </row>
-    <row r="21" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="5">
+        <v>340.64800000000002</v>
+      </c>
+      <c r="U19" s="5">
+        <v>342.35599999999999</v>
+      </c>
+      <c r="V19" s="5">
+        <v>344.00299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2622,47 +2767,59 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10">
-        <f t="shared" ref="K21" si="15">+K6/G6-1</f>
+        <f t="shared" ref="K21" si="9">+K6/G6-1</f>
         <v>0.53682952446488708</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" ref="L21:T21" si="16">+L6/H6-1</f>
+        <f t="shared" ref="L21:W21" si="10">+L6/H6-1</f>
         <v>0.53854278741438577</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.47319071408263547</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.41893427550155993</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.36767263523545135</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.31544408294494652</v>
       </c>
       <c r="Q21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.32178022843639242</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.31952311612668383</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.30472990436805381</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="16"/>
-        <v>0.27717232750069676</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.29985024019916096</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="10"/>
+        <v>0.28153158522050048</v>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" si="10"/>
+        <v>0.2687841577165746</v>
+      </c>
+      <c r="W21" s="10">
+        <f t="shared" si="10"/>
+        <v>0.23745377707342841</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2676,84 +2833,96 @@
         <v>0.1041106805258773</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:T22" si="17">(I6-H6)/H6</f>
+        <f t="shared" ref="I22:W22" si="11">(I6-H6)/H6</f>
         <v>0.13067809063951513</v>
       </c>
       <c r="J22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.12329196330658494</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9.5926568730758888E-2</v>
       </c>
       <c r="L22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.1053415469889285</v>
       </c>
       <c r="M22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.2650724680940021E-2</v>
       </c>
       <c r="N22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.1922016541945572E-2</v>
       </c>
       <c r="O22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>5.6334182744812611E-2</v>
       </c>
       <c r="P22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.3130869303006862E-2</v>
       </c>
       <c r="Q22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.7865566267091064E-2</v>
       </c>
       <c r="R22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.0074493444576844E-2</v>
       </c>
       <c r="S22" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.4491589718406638E-2</v>
       </c>
       <c r="T22" s="27">
-        <f t="shared" si="17"/>
-        <v>4.0676175382989899E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>5.9154780771262433E-2</v>
+      </c>
+      <c r="U22" s="27">
+        <f t="shared" si="11"/>
+        <v>7.2534389370467578E-2</v>
+      </c>
+      <c r="V22" s="27">
+        <f t="shared" si="11"/>
+        <v>6.9330964792760408E-2</v>
+      </c>
+      <c r="W22" s="27">
+        <f t="shared" si="11"/>
+        <v>1.8699717329854367E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="12" t="e">
-        <f t="shared" ref="E23:H23" si="18">+E8/E6</f>
+        <f t="shared" ref="E23:H23" si="12">+E8/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.76759986961718152</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.77019314036791142</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" ref="I23:K23" si="19">+I8/I6</f>
+        <f t="shared" ref="I23:K23" si="13">+I8/I6</f>
         <v>0.7822706516504494</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.78049133246554692</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.77823601219793836</v>
       </c>
       <c r="L23" s="12">
@@ -2761,55 +2930,71 @@
         <v>0.76204710106303597</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" ref="M23:S23" si="20">+M8/M6</f>
+        <f t="shared" ref="M23:W23" si="14">+M8/M6</f>
         <v>0.75593934619929104</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.75318529304696025</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.75727750495390711</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.75616705673368045</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.76728247914183545</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.7702366796975223</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.7753882725832012</v>
       </c>
-      <c r="V23" t="s">
+      <c r="T23" s="12">
+        <f t="shared" si="14"/>
+        <v>0.7780252172091493</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="14"/>
+        <v>0.77686348184764764</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" si="14"/>
+        <v>0.76377473363774739</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
         <v>71</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AB23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="V24" s="15" t="s">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="23">
-        <v>0.24</v>
-      </c>
-      <c r="X24" s="15" t="s">
+      <c r="AA24" s="23">
+        <v>0.27</v>
+      </c>
+      <c r="AB24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="23">
+      <c r="AC24" s="23">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2831,14 +3016,14 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="V25" s="17" t="s">
+      <c r="Z25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="16">
+      <c r="AA25" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2858,14 +3043,14 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="V26" s="17" t="s">
+      <c r="Z26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W26" s="16">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2887,22 +3072,22 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="V27" s="17" t="s">
+      <c r="Z27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="W27" s="18">
-        <f>NPV(W26,W6:DD6)</f>
-        <v>31483.778190923898</v>
-      </c>
-      <c r="X27" s="17" t="s">
+      <c r="AA27" s="18">
+        <f>NPV(AA26,Z6:DG6)</f>
+        <v>58602.501194637283</v>
+      </c>
+      <c r="AB27" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Y27" s="26">
-        <f>NPV($W$26,W7:DD7)</f>
-        <v>37325.420469243487</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC27" s="26">
+        <f>NPV($AA$26,Z7:DG7)</f>
+        <v>61961.934543992051</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
@@ -2922,22 +3107,22 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="V28" s="17" t="s">
+      <c r="Z28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="21">
+      <c r="AA28" s="21">
         <f>Main!$O$3</f>
         <v>338.58300000000003</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="AB28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="AC28" s="21">
         <f>Main!$O$3</f>
         <v>338.58300000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2957,22 +3142,22 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="V29" s="17" t="s">
+      <c r="Z29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="19">
-        <f>W27/W28</f>
-        <v>92.986884134536865</v>
-      </c>
-      <c r="X29" s="17" t="s">
+      <c r="AA29" s="19">
+        <f>AA27/AA28</f>
+        <v>173.08164082259677</v>
+      </c>
+      <c r="AB29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Y29" s="19">
-        <f>Y27/Y28</f>
-        <v>110.24009022674937</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="19">
+        <f>AC27/AC28</f>
+        <v>183.00367869618984</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
@@ -2992,22 +3177,22 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="V30" s="17" t="s">
+      <c r="Z30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="W30" s="20">
-        <f>(W29-Main!$O$2)/Main!$O$2</f>
-        <v>0.24982371148571045</v>
-      </c>
-      <c r="X30" s="17" t="s">
+      <c r="AA30" s="20">
+        <f>(AA29-Main!$O$2)/Main!$O$2</f>
+        <v>3.853138619102827E-2</v>
+      </c>
+      <c r="AB30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Y30" s="20">
-        <f>(Y29-Main!$O$2)/Main!$O$2</f>
-        <v>0.48172164283265273</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC30" s="20">
+        <f>(AC29-Main!$O$2)/Main!$O$2</f>
+        <v>9.806599481693172E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -3029,22 +3214,22 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="V31" s="17" t="s">
+      <c r="Z31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W31" s="18">
-        <f>W28*W29</f>
-        <v>31483.778190923898</v>
-      </c>
-      <c r="X31" s="17" t="s">
+      <c r="AA31" s="18">
+        <f>AA28*AA29</f>
+        <v>58602.501194637283</v>
+      </c>
+      <c r="AB31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Y31" s="18">
-        <f>Y28*Y29</f>
-        <v>37325.420469243487</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC31" s="18">
+        <f>AC28*AC29</f>
+        <v>61961.934543992051</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
